--- a/example_data/EPA/label_corrected/083100-00044-20190501.xlsx
+++ b/example_data/EPA/label_corrected/083100-00044-20190501.xlsx
@@ -753,7 +753,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Env warning - species</t>
+          <t>env warning - species</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G130" t="inlineStr"/>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G137" t="inlineStr"/>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G140" t="inlineStr"/>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G143" t="inlineStr"/>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G148" t="inlineStr"/>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5726,7 +5726,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G181" t="inlineStr"/>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -6032,7 +6032,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -6340,7 +6340,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6450,7 +6450,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
